--- a/Hashmap_Benchmarks/results/stl_rbh_v2.3_500M_100M(2).xlsx
+++ b/Hashmap_Benchmarks/results/stl_rbh_v2.3_500M_100M(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Desktop\programing\Hashmap_Optimization\Hashmap_Benchmarks\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABFA7C9-FCD0-403C-BB00-3F828A64948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE0BED7-0E65-4C42-B8ED-2D5B2AA6A360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{99B71111-A82A-49AB-9339-97B7F2901758}"/>
   </bookViews>
@@ -237,10 +237,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28001579400</c:v>
+                  <c:v>28477059100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20535321100</c:v>
+                  <c:v>18664128700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,10 +537,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>48783166600</c:v>
+                  <c:v>46690792200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24157503500</c:v>
+                  <c:v>23683742800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,10 +827,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19071738600</c:v>
+                  <c:v>16865719400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5161368900</c:v>
+                  <c:v>4673406100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,19 +1151,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2651654100</c:v>
+                  <c:v>2565766700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3041442600</c:v>
+                  <c:v>2919570300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5998911900</c:v>
+                  <c:v>5828671700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8105687900</c:v>
+                  <c:v>7954074800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20609434900</c:v>
+                  <c:v>19822425800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,19 +1232,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2503866100</c:v>
+                  <c:v>2503083700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2252652400</c:v>
+                  <c:v>2199369300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3119048000</c:v>
+                  <c:v>3215792200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2636344900</c:v>
+                  <c:v>2591444100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4307787900</c:v>
+                  <c:v>4359651600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,19 +1598,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2411839400</c:v>
+                  <c:v>2346426700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2731457800</c:v>
+                  <c:v>2661563300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5339959100</c:v>
+                  <c:v>5195456100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7561616600</c:v>
+                  <c:v>7519680300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20184511400</c:v>
+                  <c:v>19466778200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,19 +1679,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2384225300</c:v>
+                  <c:v>2373280200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3155945100</c:v>
+                  <c:v>3113211500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3026367900</c:v>
+                  <c:v>3024741400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6234223500</c:v>
+                  <c:v>6232428600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4014833800</c:v>
+                  <c:v>3960256200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,19 +2045,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2334925000</c:v>
+                  <c:v>2278931700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2655571300</c:v>
+                  <c:v>2585895400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6189248700</c:v>
+                  <c:v>6168137400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8171683600</c:v>
+                  <c:v>8004150900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20977355300</c:v>
+                  <c:v>20286204100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,19 +2126,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2335042900</c:v>
+                  <c:v>2332996200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3041442600</c:v>
+                  <c:v>2919570300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3050606300</c:v>
+                  <c:v>3059823000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5998911900</c:v>
+                  <c:v>5828671700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3764262300</c:v>
+                  <c:v>3852914900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2492,19 +2492,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2252652400</c:v>
+                  <c:v>2199369300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2636344900</c:v>
+                  <c:v>2591444100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6186901700</c:v>
+                  <c:v>6129494100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8461777000</c:v>
+                  <c:v>8328556500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23124458100</c:v>
+                  <c:v>22264311900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,19 +2573,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2258615300</c:v>
+                  <c:v>2262108500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2731457800</c:v>
+                  <c:v>2661563300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3222193900</c:v>
+                  <c:v>3225242100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5339959100</c:v>
+                  <c:v>5195456100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3708594600</c:v>
+                  <c:v>3756411700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2939,19 +2939,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3155945100</c:v>
+                  <c:v>3113211500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6234223500</c:v>
+                  <c:v>6232428600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6753279400</c:v>
+                  <c:v>6765702100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8751146000</c:v>
+                  <c:v>8487791600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23876658800</c:v>
+                  <c:v>23010973700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3020,19 +3020,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2312566400</c:v>
+                  <c:v>2396668200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2655571300</c:v>
+                  <c:v>2585895400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4279124200</c:v>
+                  <c:v>4400282900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6189248700</c:v>
+                  <c:v>6168137400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3987082000</c:v>
+                  <c:v>4052495900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8261,7 +8261,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8278,7 +8278,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>28001579400</v>
+        <v>28477059100</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20535321100</v>
+        <v>18664128700</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48783166600</v>
+        <v>46690792200</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>24157503500</v>
+        <v>23683742800</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8310,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>19071738600</v>
+        <v>16865719400</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>5161368900</v>
+        <v>4673406100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8343,19 +8343,19 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2651654100</v>
+        <v>2565766700</v>
       </c>
       <c r="C8">
-        <v>3041442600</v>
+        <v>2919570300</v>
       </c>
       <c r="D8">
-        <v>5998911900</v>
+        <v>5828671700</v>
       </c>
       <c r="E8">
-        <v>8105687900</v>
+        <v>7954074800</v>
       </c>
       <c r="F8">
-        <v>20609434900</v>
+        <v>19822425800</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8363,19 +8363,19 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>2503866100</v>
+        <v>2503083700</v>
       </c>
       <c r="C9">
-        <v>2252652400</v>
+        <v>2199369300</v>
       </c>
       <c r="D9">
-        <v>3119048000</v>
+        <v>3215792200</v>
       </c>
       <c r="E9">
-        <v>2636344900</v>
+        <v>2591444100</v>
       </c>
       <c r="F9">
-        <v>4307787900</v>
+        <v>4359651600</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8400,19 +8400,19 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>2411839400</v>
+        <v>2346426700</v>
       </c>
       <c r="C11">
-        <v>2731457800</v>
+        <v>2661563300</v>
       </c>
       <c r="D11">
-        <v>5339959100</v>
+        <v>5195456100</v>
       </c>
       <c r="E11">
-        <v>7561616600</v>
+        <v>7519680300</v>
       </c>
       <c r="F11">
-        <v>20184511400</v>
+        <v>19466778200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8420,19 +8420,19 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>2384225300</v>
+        <v>2373280200</v>
       </c>
       <c r="C12">
-        <v>3155945100</v>
+        <v>3113211500</v>
       </c>
       <c r="D12">
-        <v>3026367900</v>
+        <v>3024741400</v>
       </c>
       <c r="E12">
-        <v>6234223500</v>
+        <v>6232428600</v>
       </c>
       <c r="F12">
-        <v>4014833800</v>
+        <v>3960256200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -8457,19 +8457,19 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>2334925000</v>
+        <v>2278931700</v>
       </c>
       <c r="C14">
-        <v>2655571300</v>
+        <v>2585895400</v>
       </c>
       <c r="D14">
-        <v>6189248700</v>
+        <v>6168137400</v>
       </c>
       <c r="E14">
-        <v>8171683600</v>
+        <v>8004150900</v>
       </c>
       <c r="F14">
-        <v>20977355300</v>
+        <v>20286204100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -8477,19 +8477,19 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>2335042900</v>
+        <v>2332996200</v>
       </c>
       <c r="C15">
-        <v>3041442600</v>
+        <v>2919570300</v>
       </c>
       <c r="D15">
-        <v>3050606300</v>
+        <v>3059823000</v>
       </c>
       <c r="E15">
-        <v>5998911900</v>
+        <v>5828671700</v>
       </c>
       <c r="F15">
-        <v>3764262300</v>
+        <v>3852914900</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -8514,19 +8514,19 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>2252652400</v>
+        <v>2199369300</v>
       </c>
       <c r="C17">
-        <v>2636344900</v>
+        <v>2591444100</v>
       </c>
       <c r="D17">
-        <v>6186901700</v>
+        <v>6129494100</v>
       </c>
       <c r="E17">
-        <v>8461777000</v>
+        <v>8328556500</v>
       </c>
       <c r="F17">
-        <v>23124458100</v>
+        <v>22264311900</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -8534,19 +8534,19 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2258615300</v>
+        <v>2262108500</v>
       </c>
       <c r="C18">
-        <v>2731457800</v>
+        <v>2661563300</v>
       </c>
       <c r="D18">
-        <v>3222193900</v>
+        <v>3225242100</v>
       </c>
       <c r="E18">
-        <v>5339959100</v>
+        <v>5195456100</v>
       </c>
       <c r="F18">
-        <v>3708594600</v>
+        <v>3756411700</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8571,19 +8571,19 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>3155945100</v>
+        <v>3113211500</v>
       </c>
       <c r="C20">
-        <v>6234223500</v>
+        <v>6232428600</v>
       </c>
       <c r="D20">
-        <v>6753279400</v>
+        <v>6765702100</v>
       </c>
       <c r="E20">
-        <v>8751146000</v>
+        <v>8487791600</v>
       </c>
       <c r="F20">
-        <v>23876658800</v>
+        <v>23010973700</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -8591,19 +8591,19 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>2312566400</v>
+        <v>2396668200</v>
       </c>
       <c r="C21">
-        <v>2655571300</v>
+        <v>2585895400</v>
       </c>
       <c r="D21">
-        <v>4279124200</v>
+        <v>4400282900</v>
       </c>
       <c r="E21">
-        <v>6189248700</v>
+        <v>6168137400</v>
       </c>
       <c r="F21">
-        <v>3987082000</v>
+        <v>4052495900</v>
       </c>
     </row>
   </sheetData>
